--- a/examples/sources/data/unsolved/to_schedule/2018-12-04.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-04.xlsx
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="N166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O166" s="2">
         <v>43438</v>
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="N167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O167" s="2">
         <v>43438</v>
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="N168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O168" s="2">
         <v>43438</v>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O169" s="2">
         <v>43438</v>
